--- a/biology/Médecine/Donald_Meltzer/Donald_Meltzer.xlsx
+++ b/biology/Médecine/Donald_Meltzer/Donald_Meltzer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Donald Meltzer, né le 15 août 1922 à New York et mort le 13 août 2004 à Oxford, est un psychiatre et psychanalyste d'origine américaine.
 </t>
@@ -511,9 +523,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait des études de médecine à l'université Yale, puis se spécialise en psychiatrie, notamment dans le service psychiatre infantile de la Dre Lauretta Bender au Bellevue Hospital[1]. Il se forme à la psychanalyse en 1954, au sein de la Société britannique de psychanalyse, où il est proche des théorisations de Melanie Klein, avant d'orienter ses recherches dans une perspective proche de Wilfred Bion[2]. Il a enseigné pendant plus de 20 ans à la Tavistock Clinic.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait des études de médecine à l'université Yale, puis se spécialise en psychiatrie, notamment dans le service psychiatre infantile de la Dre Lauretta Bender au Bellevue Hospital. Il se forme à la psychanalyse en 1954, au sein de la Société britannique de psychanalyse, où il est proche des théorisations de Melanie Klein, avant d'orienter ses recherches dans une perspective proche de Wilfred Bion. Il a enseigné pendant plus de 20 ans à la Tavistock Clinic.
 Il y travaille en étroite collaboration avec Wilfred Bion, Roger Money-Kyrle, Esther Bick, et Martha Harris, son épouse.
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Autisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est connu pour son travail sur l'autisme, et souvent cité comme référence complémentaire au travail de Frances Tustin par Jean Bégoin notamment.[réf. nécessaire]
-Il initie la notion de « claustrum », et celle d'« identification adhésive »[3], en prolongement de la notion créée par Melanie Klein et développée par Bion d'identification projective).
+Il initie la notion de « claustrum », et celle d'« identification adhésive », en prolongement de la notion créée par Melanie Klein et développée par Bion d'identification projective).
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Processus psychanalytique, 1967
 Les Structures sexuelles de la vie psychique, Paris, Payot, 1977  (ISBN 2228118206) ;
